--- a/Documentation/Livrables/Planning.xlsx
+++ b/Documentation/Livrables/Planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin BRAYE\Desktop\J-Sim Forest\Documentation\Livrables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin BRAYE\Desktop\j-sim-forest\Documentation\Livrables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>Planning Prévisionnel</t>
   </si>
@@ -56,9 +56,6 @@
     <t>SOUTENANCES</t>
   </si>
   <si>
-    <t>Réalisation du Rapport n°1</t>
-  </si>
-  <si>
     <t>Jeudi 31</t>
   </si>
   <si>
@@ -80,15 +77,9 @@
     <t>BDD/UML</t>
   </si>
   <si>
-    <t>UML</t>
-  </si>
-  <si>
     <t>Mockups</t>
   </si>
   <si>
-    <t>UML / Préparation des Livrables</t>
-  </si>
-  <si>
     <t>Documents du  Projet</t>
   </si>
   <si>
@@ -98,12 +89,6 @@
     <t>Formation SQL Lite / Java 2D</t>
   </si>
   <si>
-    <t xml:space="preserve">Démarrage Programmation avec Eclipse </t>
-  </si>
-  <si>
-    <t>Développement de IHM</t>
-  </si>
-  <si>
     <t>Développement IHM</t>
   </si>
   <si>
@@ -113,23 +98,44 @@
     <t>Package DataBase</t>
   </si>
   <si>
-    <t>Classe Grille /Cellule</t>
-  </si>
-  <si>
     <t>Correction Bugs</t>
   </si>
   <si>
-    <t>Association des Différents Packages</t>
-  </si>
-  <si>
     <t>Intégration Java 2D</t>
+  </si>
+  <si>
+    <t>Classe Grille / Cellule</t>
+  </si>
+  <si>
+    <t>Création Grille en Java 2D</t>
+  </si>
+  <si>
+    <t>Intégration Classe G/C dans l'affichage</t>
+  </si>
+  <si>
+    <t>Changement UML</t>
+  </si>
+  <si>
+    <t>Paramétrage SQL Lite</t>
+  </si>
+  <si>
+    <t>Développement Mode Incendie / Insecte</t>
+  </si>
+  <si>
+    <t>Création Enumémration / Interface</t>
+  </si>
+  <si>
+    <t>Finalisation du dossier de  Projet</t>
+  </si>
+  <si>
+    <t>UML/Analyse Fonctionnelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +168,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,23 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,18 +209,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -246,50 +244,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -328,76 +282,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,21 +386,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -529,123 +456,84 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -953,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+      <selection sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,403 +853,411 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="19" t="s">
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15" t="s">
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
@@ -1381,7 +1277,7 @@
       <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1392,81 +1288,73 @@
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C12:D12"/>
+  <mergeCells count="65">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C18:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C19:J20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Documentation/Livrables/Planning.xlsx
+++ b/Documentation/Livrables/Planning.xlsx
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
-    <t>Planning Prévisionnel</t>
-  </si>
-  <si>
     <t>Lundi</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>UML/Analyse Fonctionnelle</t>
+  </si>
+  <si>
+    <t>Planning Réalisé</t>
   </si>
 </sst>
 </file>
@@ -460,16 +460,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,61 +529,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,398 +861,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1290,6 +1290,55 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
@@ -1306,55 +1355,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
